--- a/TestData/LV_TMTT0038660_VerifyTheFunctionalityOfTimeRecordManagerForFVASupervisorUserOntheSFLightningView.xlsx
+++ b/TestData/LV_TMTT0038660_VerifyTheFunctionalityOfTimeRecordManagerForFVASupervisorUserOntheSFLightningView.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMittal0207\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB73956D-B9AE-4A71-A287-C8F979C4374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A69A103-1CC2-42B8-8142-5590DBC5719B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="5" r:id="rId1"/>
@@ -153,9 +153,6 @@
     <t>Project Brown - FVA - 118279</t>
   </si>
   <si>
-    <t>Ashley Choi</t>
-  </si>
-  <si>
     <t>Closing/Bring Down</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>DetailLogsTIme</t>
+  </si>
+  <si>
+    <t>Aadarsh Patel</t>
   </si>
 </sst>
 </file>
@@ -501,19 +501,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,9 +524,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -538,7 +538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -563,14 +563,14 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -588,17 +588,17 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -612,21 +612,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -646,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -682,17 +682,17 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -748,14 +748,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -771,7 +771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -790,17 +790,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -822,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -847,22 +847,22 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -870,12 +870,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
